--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/C/15/seed5/result_data_RandomForest.xlsx
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.459</v>
+        <v>-11.59979999999999</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.8389</v>
+        <v>-12.6953</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.6806</v>
+        <v>-13.71020000000002</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.5206</v>
+        <v>-12.48340000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.40199999999999</v>
+        <v>-12.3425</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.59799999999999</v>
+        <v>-14.79639999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.9446</v>
+        <v>-12.90940000000001</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48329999999999</v>
+        <v>-13.33869999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.55179999999999</v>
+        <v>-12.42549999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.97320000000001</v>
+        <v>-11.0551</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-12.09479999999999</v>
+        <v>-12.41279999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.5638</v>
+        <v>-11.463</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.5192</v>
+        <v>-13.9567</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.17699999999999</v>
+        <v>-13.23799999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1981,7 +1981,7 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.2431</v>
+        <v>-10.4493</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.8768</v>
+        <v>-11.0337</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.76209999999999</v>
+        <v>-12.964</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
